--- a/data/trans_orig/P43C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6882DAE9-B6B4-46C9-8DD5-E7599400E409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{620400EF-C7F3-46E6-9EC1-867FE4E4F797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{183A0B96-3F69-4D49-BED2-B88D9FA3606B}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{67FCB111-A860-4AB3-A699-E9392B086D82}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="164">
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2007 (Tasa respuesta: 49,87%)</t>
   </si>
@@ -80,10 +80,10 @@
     <t>48,32%</t>
   </si>
   <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,10 +92,10 @@
     <t>51,68%</t>
   </si>
   <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
+    <t>42,31%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -107,19 +107,19 @@
     <t>46,85%</t>
   </si>
   <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
   </si>
   <si>
     <t>53,15%</t>
   </si>
   <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -128,19 +128,19 @@
     <t>51,83%</t>
   </si>
   <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
+    <t>48,35%</t>
+  </si>
+  <si>
+    <t>54,82%</t>
   </si>
   <si>
     <t>48,17%</t>
   </si>
   <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>51,65%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -149,19 +149,19 @@
     <t>56,6%</t>
   </si>
   <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
   </si>
   <si>
     <t>43,4%</t>
   </si>
   <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -170,37 +170,37 @@
     <t>58,27%</t>
   </si>
   <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>61,56%</t>
   </si>
   <si>
     <t>41,73%</t>
   </si>
   <si>
-    <t>38,56%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
+    <t>38,44%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
   </si>
   <si>
     <t>53,81%</t>
   </si>
   <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
   </si>
   <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -212,25 +212,25 @@
     <t>56,61%</t>
   </si>
   <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
   </si>
   <si>
     <t>43,39%</t>
   </si>
   <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>53,77%</t>
   </si>
   <si>
     <t>63,6%</t>
   </si>
   <si>
-    <t>59,6%</t>
+    <t>59,24%</t>
   </si>
   <si>
     <t>67,48%</t>
@@ -242,79 +242,79 @@
     <t>32,52%</t>
   </si>
   <si>
-    <t>40,4%</t>
+    <t>40,76%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>67,67%</t>
   </si>
   <si>
     <t>35,39%</t>
   </si>
   <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
   </si>
   <si>
     <t>70,3%</t>
   </si>
   <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>73,79%</t>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
   </si>
   <si>
     <t>29,7%</t>
   </si>
   <si>
-    <t>26,21%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
   </si>
   <si>
     <t>63,48%</t>
   </si>
   <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
   </si>
   <si>
     <t>36,52%</t>
   </si>
   <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>39,63%</t>
   </si>
   <si>
     <t>65,1%</t>
   </si>
   <si>
-    <t>63,41%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>66,7%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>36,59%</t>
+    <t>33,3%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
   </si>
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2015 (Tasa respuesta: 50,28%)</t>
@@ -323,97 +323,109 @@
     <t>61,08%</t>
   </si>
   <si>
-    <t>70,37%</t>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
   </si>
   <si>
     <t>38,92%</t>
   </si>
   <si>
-    <t>29,63%</t>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
   </si>
   <si>
     <t>54,6%</t>
   </si>
   <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
+    <t>50,2%</t>
+  </si>
+  <si>
+    <t>58,63%</t>
   </si>
   <si>
     <t>45,4%</t>
   </si>
   <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
   </si>
   <si>
     <t>65,15%</t>
   </si>
   <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
+    <t>61,79%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
   </si>
   <si>
     <t>34,85%</t>
   </si>
   <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
   </si>
   <si>
     <t>64,93%</t>
   </si>
   <si>
-    <t>68,23%</t>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
   </si>
   <si>
     <t>35,07%</t>
   </si>
   <si>
-    <t>31,77%</t>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>38,82%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
   </si>
   <si>
     <t>63,94%</t>
   </si>
   <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>65,44%</t>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
   </si>
   <si>
     <t>36,06%</t>
   </si>
   <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
   </si>
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2023 (Tasa respuesta: 45,61%)</t>
@@ -422,19 +434,19 @@
     <t>61,03%</t>
   </si>
   <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
   </si>
   <si>
     <t>38,97%</t>
   </si>
   <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
   </si>
   <si>
     <t>50,22%</t>
@@ -443,13 +455,13 @@
     <t>46,0%</t>
   </si>
   <si>
-    <t>53,89%</t>
+    <t>54,31%</t>
   </si>
   <si>
     <t>49,78%</t>
   </si>
   <si>
-    <t>46,11%</t>
+    <t>45,69%</t>
   </si>
   <si>
     <t>54,0%</t>
@@ -458,73 +470,67 @@
     <t>51,15%</t>
   </si>
   <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
   </si>
   <si>
     <t>48,85%</t>
   </si>
   <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
   </si>
   <si>
     <t>63,54%</t>
   </si>
   <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>67,41%</t>
   </si>
   <si>
     <t>36,46%</t>
   </si>
   <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
+    <t>32,59%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
   </si>
   <si>
     <t>55,92%</t>
   </si>
   <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
+    <t>48,79%</t>
+  </si>
+  <si>
+    <t>58,99%</t>
   </si>
   <si>
     <t>44,08%</t>
   </si>
   <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
+    <t>41,01%</t>
+  </si>
+  <si>
+    <t>51,21%</t>
   </si>
 </sst>
 </file>
@@ -936,7 +942,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E81A9DD-55F6-4C16-A0E9-41FA0A20BF49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AC7200-78CC-4587-B7B9-EA5E29417044}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1963,7 +1969,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29FF810-23F9-477A-BE5E-FADBAF8ED75C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75F05F6-D69F-4D07-907C-320015EE7107}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2990,7 +2996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8071767-E3BF-441E-A9D9-FE58C0D27481}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640B7251-62FE-41E3-8027-6499AB34FF55}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3130,10 +3136,10 @@
         <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -3145,10 +3151,10 @@
         <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3176,13 +3182,13 @@
         <v>43026</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -3191,13 +3197,13 @@
         <v>43026</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3282,13 @@
         <v>303002</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>299</v>
@@ -3291,13 +3297,13 @@
         <v>303002</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3325,13 +3331,13 @@
         <v>251966</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>248</v>
@@ -3340,13 +3346,13 @@
         <v>251966</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3425,13 +3431,13 @@
         <v>668829</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M10" s="7">
         <v>631</v>
@@ -3440,13 +3446,13 @@
         <v>668829</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3474,13 +3480,13 @@
         <v>357768</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M11" s="7">
         <v>331</v>
@@ -3489,13 +3495,13 @@
         <v>357768</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,13 +3580,13 @@
         <v>506968</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="M13" s="7">
         <v>480</v>
@@ -3589,13 +3595,13 @@
         <v>506968</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3629,13 @@
         <v>273836</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="M14" s="7">
         <v>252</v>
@@ -3638,13 +3644,13 @@
         <v>273836</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3723,13 +3729,13 @@
         <v>695903</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M16" s="7">
         <v>643</v>
@@ -3738,13 +3744,13 @@
         <v>695903</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3772,13 +3778,13 @@
         <v>337850</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
         <v>307</v>
@@ -3787,13 +3793,13 @@
         <v>337850</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,13 +3878,13 @@
         <v>2242226</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="M19" s="7">
         <v>2123</v>
@@ -3887,13 +3893,13 @@
         <v>2242226</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3921,13 +3927,13 @@
         <v>1264446</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="M20" s="7">
         <v>1180</v>
@@ -3936,13 +3942,13 @@
         <v>1264446</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,7 +4023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CEA5CF3-9A86-46C5-AB2C-2DBDB95FB6EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369539F9-FE45-4B48-9DD8-78C566F81173}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4034,7 +4040,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4154,13 +4160,13 @@
         <v>53672</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>100</v>
@@ -4169,13 +4175,13 @@
         <v>53672</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,13 +4209,13 @@
         <v>34268</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -4218,13 +4224,13 @@
         <v>34268</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4309,13 @@
         <v>228952</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="M7" s="7">
         <v>400</v>
@@ -4318,13 +4324,13 @@
         <v>228952</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,13 +4358,13 @@
         <v>226927</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M8" s="7">
         <v>368</v>
@@ -4367,13 +4373,13 @@
         <v>226927</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4458,13 @@
         <v>413703</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="M10" s="7">
         <v>643</v>
@@ -4467,13 +4473,13 @@
         <v>413703</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4507,13 @@
         <v>395116</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M11" s="7">
         <v>522</v>
@@ -4516,13 +4522,13 @@
         <v>395116</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4607,13 @@
         <v>356550</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M13" s="7">
         <v>500</v>
@@ -4616,13 +4622,13 @@
         <v>356550</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4650,13 +4656,13 @@
         <v>293806</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M14" s="7">
         <v>226</v>
@@ -4665,13 +4671,13 @@
         <v>293806</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4750,13 +4756,13 @@
         <v>560339</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M16" s="7">
         <v>777</v>
@@ -4765,13 +4771,13 @@
         <v>560339</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4805,13 @@
         <v>321572</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
@@ -4814,13 +4820,13 @@
         <v>321572</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4899,13 +4905,13 @@
         <v>1613216</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M19" s="7">
         <v>2420</v>
@@ -4914,13 +4920,13 @@
         <v>1613216</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4948,13 +4954,13 @@
         <v>1271690</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M20" s="7">
         <v>1568</v>
@@ -4963,13 +4969,13 @@
         <v>1271690</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{620400EF-C7F3-46E6-9EC1-867FE4E4F797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{210A7595-EB1D-4583-A4EA-DC220717FB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{67FCB111-A860-4AB3-A699-E9392B086D82}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05613DD4-4706-4834-BDB1-946ECAB592DF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="166">
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2007 (Tasa respuesta: 49,87%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,10 +80,10 @@
     <t>48,32%</t>
   </si>
   <si>
-    <t>39,82%</t>
-  </si>
-  <si>
-    <t>57,69%</t>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
   </si>
   <si>
     <t>No</t>
@@ -92,403 +92,409 @@
     <t>51,68%</t>
   </si>
   <si>
-    <t>42,31%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>46,85%</t>
   </si>
   <si>
-    <t>42,89%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
+    <t>42,6%</t>
+  </si>
+  <si>
+    <t>50,94%</t>
   </si>
   <si>
     <t>53,15%</t>
   </si>
   <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>49,06%</t>
+  </si>
+  <si>
+    <t>57,4%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>51,83%</t>
   </si>
   <si>
-    <t>48,35%</t>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>55,05%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>44,95%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>56,6%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>60,26%</t>
+  </si>
+  <si>
+    <t>43,4%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>47,34%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>55,39%</t>
+  </si>
+  <si>
+    <t>61,39%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>44,61%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>52,16%</t>
+  </si>
+  <si>
+    <t>55,58%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>47,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si alguna vez le han realizado una citología vaginal en 2012 (Tasa respuesta: 50,16%)</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>43,39%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>53,72%</t>
+  </si>
+  <si>
+    <t>63,6%</t>
+  </si>
+  <si>
+    <t>59,42%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>40,58%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>61,49%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>70,3%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>73,5%</t>
+  </si>
+  <si>
+    <t>29,7%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>66,39%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>63,37%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>Población según si alguna vez le han realizado una citología vaginal en 2016 (Tasa respuesta: 50,28%)</t>
+  </si>
+  <si>
+    <t>61,08%</t>
+  </si>
+  <si>
+    <t>50,69%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>54,6%</t>
+  </si>
+  <si>
+    <t>50,64%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>45,4%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>49,36%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>61,28%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>38,72%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>Población según si alguna vez le han realizado una citología vaginal en 2023 (Tasa respuesta: 45,61%)</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>52,17%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>47,83%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>47,86%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>52,14%</t>
   </si>
   <si>
     <t>54,82%</t>
   </si>
   <si>
-    <t>48,17%</t>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
   </si>
   <si>
     <t>45,18%</t>
-  </si>
-  <si>
-    <t>51,65%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>56,6%</t>
-  </si>
-  <si>
-    <t>52,51%</t>
-  </si>
-  <si>
-    <t>60,49%</t>
-  </si>
-  <si>
-    <t>43,4%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>61,56%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si alguna vez le han realizado una citología vaginal en 2012 (Tasa respuesta: 50,16%)</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>53,77%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>59,24%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>40,76%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>70,3%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>63,44%</t>
-  </si>
-  <si>
-    <t>66,7%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>33,3%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
-  </si>
-  <si>
-    <t>Población según si alguna vez le han realizado una citología vaginal en 2015 (Tasa respuesta: 50,28%)</t>
-  </si>
-  <si>
-    <t>61,08%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>30,3%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>61,79%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>Población según si alguna vez le han realizado una citología vaginal en 2023 (Tasa respuesta: 45,61%)</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
   </si>
   <si>
     <t>32,31%</t>
@@ -942,7 +948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56AC7200-78CC-4587-B7B9-EA5E29417044}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCE5FF4-444F-4A82-9816-20989DC3DC02}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1969,7 +1975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F75F05F6-D69F-4D07-907C-320015EE7107}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53200EF-C86D-4FE4-B01F-5D8D05825F04}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2897,7 +2903,7 @@
         <v>1157</v>
       </c>
       <c r="I20" s="7">
-        <v>1229378</v>
+        <v>1229377</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>89</v>
@@ -2912,7 +2918,7 @@
         <v>1157</v>
       </c>
       <c r="N20" s="7">
-        <v>1229378</v>
+        <v>1229377</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>89</v>
@@ -2946,7 +2952,7 @@
         <v>3264</v>
       </c>
       <c r="I21" s="7">
-        <v>3522354</v>
+        <v>3522353</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -2961,7 +2967,7 @@
         <v>3264</v>
       </c>
       <c r="N21" s="7">
-        <v>3522354</v>
+        <v>3522353</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -2996,7 +3002,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{640B7251-62FE-41E3-8027-6499AB34FF55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBB9017-7671-4E16-BA6C-AB778DC49C3D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4023,7 +4029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369539F9-FE45-4B48-9DD8-78C566F81173}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B919B45-7D1A-4EB8-BA34-06362D123F61}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4607,13 +4613,13 @@
         <v>356550</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>500</v>
@@ -4622,13 +4628,13 @@
         <v>356550</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>30</v>
+        <v>148</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4656,13 +4662,13 @@
         <v>293806</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M14" s="7">
         <v>226</v>
@@ -4671,13 +4677,13 @@
         <v>293806</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4762,13 @@
         <v>560339</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M16" s="7">
         <v>777</v>
@@ -4771,13 +4777,13 @@
         <v>560339</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,13 +4811,13 @@
         <v>321572</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
@@ -4820,13 +4826,13 @@
         <v>321572</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,13 +4911,13 @@
         <v>1613216</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="M19" s="7">
         <v>2420</v>
@@ -4920,13 +4926,13 @@
         <v>1613216</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4960,13 @@
         <v>1271690</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="M20" s="7">
         <v>1568</v>
@@ -4969,13 +4975,13 @@
         <v>1271690</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{210A7595-EB1D-4583-A4EA-DC220717FB10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4C78C09-B0D8-43D0-9F81-7FCD0BD7434A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{05613DD4-4706-4834-BDB1-946ECAB592DF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{21974219-A895-4610-9D05-704C6D8A7067}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="162">
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2007 (Tasa respuesta: 49,87%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -80,67 +80,67 @@
     <t>48,32%</t>
   </si>
   <si>
-    <t>39,08%</t>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>57,13%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>51,68%</t>
+  </si>
+  <si>
+    <t>42,87%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>53,15%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
   </si>
   <si>
     <t>57,0%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>60,92%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>57,4%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
     <t>51,83%</t>
   </si>
   <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>55,05%</t>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
   </si>
   <si>
     <t>48,17%</t>
   </si>
   <si>
-    <t>44,95%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -149,19 +149,19 @@
     <t>56,6%</t>
   </si>
   <si>
-    <t>52,66%</t>
-  </si>
-  <si>
-    <t>60,26%</t>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
   </si>
   <si>
     <t>43,4%</t>
   </si>
   <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>47,34%</t>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>47,31%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -170,37 +170,37 @@
     <t>58,27%</t>
   </si>
   <si>
-    <t>55,39%</t>
-  </si>
-  <si>
-    <t>61,39%</t>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
   </si>
   <si>
     <t>41,73%</t>
   </si>
   <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
+    <t>38,56%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
   </si>
   <si>
     <t>53,81%</t>
   </si>
   <si>
-    <t>52,16%</t>
-  </si>
-  <si>
-    <t>55,58%</t>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
   </si>
   <si>
     <t>46,19%</t>
   </si>
   <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>47,84%</t>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -212,109 +212,109 @@
     <t>56,61%</t>
   </si>
   <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
+    <t>46,89%</t>
+  </si>
+  <si>
+    <t>66,71%</t>
   </si>
   <si>
     <t>43,39%</t>
   </si>
   <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>53,72%</t>
+    <t>33,29%</t>
+  </si>
+  <si>
+    <t>53,11%</t>
   </si>
   <si>
     <t>63,6%</t>
   </si>
   <si>
-    <t>59,42%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
+    <t>59,6%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
   </si>
   <si>
     <t>36,4%</t>
   </si>
   <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>40,58%</t>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>40,4%</t>
   </si>
   <si>
     <t>64,61%</t>
   </si>
   <si>
-    <t>61,49%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
   </si>
   <si>
     <t>35,39%</t>
   </si>
   <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>38,51%</t>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
   </si>
   <si>
     <t>70,3%</t>
   </si>
   <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>73,5%</t>
+    <t>66,88%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
   </si>
   <si>
     <t>29,7%</t>
   </si>
   <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>33,12%</t>
   </si>
   <si>
     <t>63,48%</t>
   </si>
   <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
+    <t>60,64%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
   </si>
   <si>
     <t>36,52%</t>
   </si>
   <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
   </si>
   <si>
     <t>65,1%</t>
   </si>
   <si>
-    <t>63,37%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
+    <t>63,41%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
   </si>
   <si>
     <t>34,9%</t>
   </si>
   <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>36,59%</t>
   </si>
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2016 (Tasa respuesta: 50,28%)</t>
@@ -323,109 +323,97 @@
     <t>61,08%</t>
   </si>
   <si>
-    <t>50,69%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
+    <t>70,37%</t>
   </si>
   <si>
     <t>38,92%</t>
   </si>
   <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
+    <t>29,63%</t>
   </si>
   <si>
     <t>54,6%</t>
   </si>
   <si>
-    <t>50,64%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>59,03%</t>
   </si>
   <si>
     <t>45,4%</t>
   </si>
   <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>49,36%</t>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
   </si>
   <si>
     <t>65,15%</t>
   </si>
   <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
   </si>
   <si>
     <t>34,85%</t>
   </si>
   <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>37,91%</t>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
   </si>
   <si>
     <t>64,93%</t>
   </si>
   <si>
-    <t>61,28%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
+    <t>68,23%</t>
   </si>
   <si>
     <t>35,07%</t>
   </si>
   <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
+    <t>31,77%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
   </si>
   <si>
     <t>63,94%</t>
   </si>
   <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>65,44%</t>
   </si>
   <si>
     <t>36,06%</t>
   </si>
   <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
   </si>
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2023 (Tasa respuesta: 45,61%)</t>
@@ -434,19 +422,19 @@
     <t>61,03%</t>
   </si>
   <si>
-    <t>52,17%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
   </si>
   <si>
     <t>38,97%</t>
   </si>
   <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>47,83%</t>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
   </si>
   <si>
     <t>50,22%</t>
@@ -455,13 +443,13 @@
     <t>46,0%</t>
   </si>
   <si>
-    <t>54,31%</t>
+    <t>53,89%</t>
   </si>
   <si>
     <t>49,78%</t>
   </si>
   <si>
-    <t>45,69%</t>
+    <t>46,11%</t>
   </si>
   <si>
     <t>54,0%</t>
@@ -470,73 +458,73 @@
     <t>51,15%</t>
   </si>
   <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>54,56%</t>
   </si>
   <si>
     <t>48,85%</t>
   </si>
   <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
+    <t>45,44%</t>
+  </si>
+  <si>
+    <t>52,15%</t>
   </si>
   <si>
     <t>54,82%</t>
   </si>
   <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>67,7%</t>
   </si>
   <si>
     <t>45,18%</t>
   </si>
   <si>
-    <t>32,31%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
   </si>
   <si>
     <t>63,54%</t>
   </si>
   <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>67,41%</t>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
   </si>
   <si>
     <t>36,46%</t>
   </si>
   <si>
-    <t>32,59%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
   </si>
   <si>
     <t>55,92%</t>
   </si>
   <si>
-    <t>48,79%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
+    <t>47,89%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
   </si>
   <si>
     <t>44,08%</t>
   </si>
   <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>51,21%</t>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
   </si>
 </sst>
 </file>
@@ -948,7 +936,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDCE5FF4-444F-4A82-9816-20989DC3DC02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC615D2B-7FD0-4C8B-BAA1-0CA9C2534ADE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1975,7 +1963,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A53200EF-C86D-4FE4-B01F-5D8D05825F04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7E4129-8ABC-46BB-B9D6-8FE834C37D10}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2903,7 +2891,7 @@
         <v>1157</v>
       </c>
       <c r="I20" s="7">
-        <v>1229377</v>
+        <v>1229378</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>89</v>
@@ -2918,7 +2906,7 @@
         <v>1157</v>
       </c>
       <c r="N20" s="7">
-        <v>1229377</v>
+        <v>1229378</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>89</v>
@@ -2952,7 +2940,7 @@
         <v>3264</v>
       </c>
       <c r="I21" s="7">
-        <v>3522353</v>
+        <v>3522354</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -2967,7 +2955,7 @@
         <v>3264</v>
       </c>
       <c r="N21" s="7">
-        <v>3522353</v>
+        <v>3522354</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3002,7 +2990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEBB9017-7671-4E16-BA6C-AB778DC49C3D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C697F01-EDA3-441B-A444-459373514961}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3142,10 +3130,10 @@
         <v>93</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M4" s="7">
         <v>70</v>
@@ -3157,10 +3145,10 @@
         <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,13 +3176,13 @@
         <v>43026</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -3203,13 +3191,13 @@
         <v>43026</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3288,13 +3276,13 @@
         <v>303002</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>299</v>
@@ -3303,13 +3291,13 @@
         <v>303002</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,13 +3325,13 @@
         <v>251966</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M8" s="7">
         <v>248</v>
@@ -3352,13 +3340,13 @@
         <v>251966</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,13 +3425,13 @@
         <v>668829</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="M10" s="7">
         <v>631</v>
@@ -3452,13 +3440,13 @@
         <v>668829</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3486,13 +3474,13 @@
         <v>357768</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M11" s="7">
         <v>331</v>
@@ -3501,13 +3489,13 @@
         <v>357768</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3574,13 @@
         <v>506968</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="M13" s="7">
         <v>480</v>
@@ -3601,13 +3589,13 @@
         <v>506968</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3635,13 +3623,13 @@
         <v>273836</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="M14" s="7">
         <v>252</v>
@@ -3650,13 +3638,13 @@
         <v>273836</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,13 +3723,13 @@
         <v>695903</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="M16" s="7">
         <v>643</v>
@@ -3750,13 +3738,13 @@
         <v>695903</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3772,13 @@
         <v>337850</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="M17" s="7">
         <v>307</v>
@@ -3799,13 +3787,13 @@
         <v>337850</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3884,13 +3872,13 @@
         <v>2242226</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="M19" s="7">
         <v>2123</v>
@@ -3899,13 +3887,13 @@
         <v>2242226</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3933,13 +3921,13 @@
         <v>1264446</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M20" s="7">
         <v>1180</v>
@@ -3948,13 +3936,13 @@
         <v>1264446</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,7 +4017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B919B45-7D1A-4EB8-BA34-06362D123F61}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D161F3-E355-4F37-AEEF-85EB3CDB97FD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4046,7 +4034,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4166,13 +4154,13 @@
         <v>53672</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>100</v>
@@ -4181,13 +4169,13 @@
         <v>53672</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,13 +4203,13 @@
         <v>34268</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -4230,13 +4218,13 @@
         <v>34268</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,13 +4303,13 @@
         <v>228952</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="M7" s="7">
         <v>400</v>
@@ -4330,13 +4318,13 @@
         <v>228952</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,13 +4352,13 @@
         <v>226927</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M8" s="7">
         <v>368</v>
@@ -4379,13 +4367,13 @@
         <v>226927</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,13 +4452,13 @@
         <v>413703</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>643</v>
@@ -4479,13 +4467,13 @@
         <v>413703</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4513,13 +4501,13 @@
         <v>395116</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="M11" s="7">
         <v>522</v>
@@ -4528,13 +4516,13 @@
         <v>395116</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4601,13 @@
         <v>356550</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>500</v>
@@ -4628,13 +4616,13 @@
         <v>356550</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,13 +4650,13 @@
         <v>293806</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
         <v>226</v>
@@ -4677,13 +4665,13 @@
         <v>293806</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,13 +4750,13 @@
         <v>560339</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="M16" s="7">
         <v>777</v>
@@ -4777,13 +4765,13 @@
         <v>560339</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4811,13 +4799,13 @@
         <v>321572</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M17" s="7">
         <v>387</v>
@@ -4826,13 +4814,13 @@
         <v>321572</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4911,13 +4899,13 @@
         <v>1613216</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="M19" s="7">
         <v>2420</v>
@@ -4926,13 +4914,13 @@
         <v>1613216</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4960,13 +4948,13 @@
         <v>1271690</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="M20" s="7">
         <v>1568</v>
@@ -4975,13 +4963,13 @@
         <v>1271690</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P43C-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4C78C09-B0D8-43D0-9F81-7FCD0BD7434A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AF2CAB5-99C1-44E4-A20B-A44D7BE1A9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{21974219-A895-4610-9D05-704C6D8A7067}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{3FF6DAEE-AEF8-4508-B759-10B12FC9C0B5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="141">
   <si>
     <t>Población según si alguna vez le han realizado una citología vaginal en 2007 (Tasa respuesta: 49,87%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,51 +77,30 @@
     <t>—%</t>
   </si>
   <si>
-    <t>48,32%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>57,13%</t>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>51,68%</t>
-  </si>
-  <si>
-    <t>42,87%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>56,57%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>53,15%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -143,7 +122,7 @@
     <t>51,51%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>56,6%</t>
@@ -209,40 +188,22 @@
     <t>Población según si alguna vez le han realizado una citología vaginal en 2012 (Tasa respuesta: 50,16%)</t>
   </si>
   <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>46,89%</t>
-  </si>
-  <si>
-    <t>66,71%</t>
-  </si>
-  <si>
-    <t>43,39%</t>
-  </si>
-  <si>
-    <t>33,29%</t>
-  </si>
-  <si>
-    <t>53,11%</t>
-  </si>
-  <si>
-    <t>63,6%</t>
-  </si>
-  <si>
-    <t>59,6%</t>
-  </si>
-  <si>
-    <t>67,48%</t>
-  </si>
-  <si>
-    <t>36,4%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>40,4%</t>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>65,87%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
   </si>
   <si>
     <t>64,61%</t>
@@ -320,66 +281,60 @@
     <t>Población según si alguna vez le han realizado una citología vaginal en 2016 (Tasa respuesta: 50,28%)</t>
   </si>
   <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>65,15%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>67,8%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>32,2%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
     <t>61,08%</t>
   </si>
   <si>
-    <t>70,37%</t>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
   </si>
   <si>
     <t>38,92%</t>
   </si>
   <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>54,6%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>59,03%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>67,8%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>64,93%</t>
-  </si>
-  <si>
-    <t>68,23%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
     <t>67,32%</t>
   </si>
   <si>
@@ -419,112 +374,94 @@
     <t>Población según si alguna vez le han realizado una citología vaginal en 2023 (Tasa respuesta: 45,61%)</t>
   </si>
   <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>46,11%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>56,08%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
+  </si>
+  <si>
+    <t>43,92%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>44,32%</t>
+  </si>
+  <si>
+    <t>50,91%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
   </si>
   <si>
     <t>51,15%</t>
   </si>
   <si>
-    <t>47,85%</t>
-  </si>
-  <si>
-    <t>54,56%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>45,44%</t>
-  </si>
-  <si>
-    <t>52,15%</t>
-  </si>
-  <si>
-    <t>54,82%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>67,7%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>60,01%</t>
-  </si>
-  <si>
-    <t>66,98%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>47,89%</t>
-  </si>
-  <si>
-    <t>58,84%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>67,08%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>61,12%</t>
+  </si>
+  <si>
+    <t>44,03%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>58,38%</t>
   </si>
 </sst>
 </file>
@@ -936,8 +873,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC615D2B-7FD0-4C8B-BAA1-0CA9C2534ADE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CD8717-5124-486D-8281-FDA776631730}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1067,10 +1004,10 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>60</v>
+        <v>319</v>
       </c>
       <c r="I4" s="7">
-        <v>53323</v>
+        <v>317649</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>12</v>
@@ -1082,10 +1019,10 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>60</v>
+        <v>319</v>
       </c>
       <c r="N4" s="7">
-        <v>53323</v>
+        <v>317649</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>12</v>
@@ -1116,10 +1053,10 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>65</v>
+        <v>363</v>
       </c>
       <c r="I5" s="7">
-        <v>57029</v>
+        <v>356929</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>16</v>
@@ -1131,10 +1068,10 @@
         <v>18</v>
       </c>
       <c r="M5" s="7">
-        <v>65</v>
+        <v>363</v>
       </c>
       <c r="N5" s="7">
-        <v>57029</v>
+        <v>356929</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
@@ -1165,10 +1102,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>125</v>
+        <v>682</v>
       </c>
       <c r="I6" s="7">
-        <v>110352</v>
+        <v>674578</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -1180,10 +1117,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>125</v>
+        <v>682</v>
       </c>
       <c r="N6" s="7">
-        <v>110352</v>
+        <v>674578</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -1216,10 +1153,10 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>259</v>
+        <v>464</v>
       </c>
       <c r="I7" s="7">
-        <v>264326</v>
+        <v>495667</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>21</v>
@@ -1231,10 +1168,10 @@
         <v>23</v>
       </c>
       <c r="M7" s="7">
-        <v>259</v>
+        <v>464</v>
       </c>
       <c r="N7" s="7">
-        <v>264326</v>
+        <v>495667</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>21</v>
@@ -1265,10 +1202,10 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>298</v>
+        <v>433</v>
       </c>
       <c r="I8" s="7">
-        <v>299900</v>
+        <v>460729</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>24</v>
@@ -1280,10 +1217,10 @@
         <v>26</v>
       </c>
       <c r="M8" s="7">
-        <v>298</v>
+        <v>433</v>
       </c>
       <c r="N8" s="7">
-        <v>299900</v>
+        <v>460729</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>24</v>
@@ -1314,10 +1251,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>557</v>
+        <v>897</v>
       </c>
       <c r="I9" s="7">
-        <v>564226</v>
+        <v>956396</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -1329,10 +1266,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>557</v>
+        <v>897</v>
       </c>
       <c r="N9" s="7">
-        <v>564226</v>
+        <v>956396</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -1365,10 +1302,10 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>464</v>
+        <v>387</v>
       </c>
       <c r="I10" s="7">
-        <v>495667</v>
+        <v>381620</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>28</v>
@@ -1380,10 +1317,10 @@
         <v>30</v>
       </c>
       <c r="M10" s="7">
-        <v>464</v>
+        <v>387</v>
       </c>
       <c r="N10" s="7">
-        <v>495667</v>
+        <v>381620</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>28</v>
@@ -1414,10 +1351,10 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>433</v>
+        <v>300</v>
       </c>
       <c r="I11" s="7">
-        <v>460729</v>
+        <v>292662</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>31</v>
@@ -1429,10 +1366,10 @@
         <v>33</v>
       </c>
       <c r="M11" s="7">
-        <v>433</v>
+        <v>300</v>
       </c>
       <c r="N11" s="7">
-        <v>460729</v>
+        <v>292662</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>31</v>
@@ -1463,10 +1400,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>897</v>
+        <v>687</v>
       </c>
       <c r="I12" s="7">
-        <v>956396</v>
+        <v>674282</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -1478,10 +1415,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>897</v>
+        <v>687</v>
       </c>
       <c r="N12" s="7">
-        <v>956396</v>
+        <v>674282</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -1514,10 +1451,10 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>387</v>
+        <v>572</v>
       </c>
       <c r="I13" s="7">
-        <v>381620</v>
+        <v>595413</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>35</v>
@@ -1529,10 +1466,10 @@
         <v>37</v>
       </c>
       <c r="M13" s="7">
-        <v>387</v>
+        <v>572</v>
       </c>
       <c r="N13" s="7">
-        <v>381620</v>
+        <v>595413</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>35</v>
@@ -1563,10 +1500,10 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>300</v>
+        <v>409</v>
       </c>
       <c r="I14" s="7">
-        <v>292662</v>
+        <v>426381</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>38</v>
@@ -1578,10 +1515,10 @@
         <v>40</v>
       </c>
       <c r="M14" s="7">
-        <v>300</v>
+        <v>409</v>
       </c>
       <c r="N14" s="7">
-        <v>292662</v>
+        <v>426381</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>38</v>
@@ -1612,10 +1549,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>687</v>
+        <v>981</v>
       </c>
       <c r="I15" s="7">
-        <v>674282</v>
+        <v>1021794</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -1627,10 +1564,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>687</v>
+        <v>981</v>
       </c>
       <c r="N15" s="7">
-        <v>674282</v>
+        <v>1021794</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -1644,7 +1581,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1663,34 +1600,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>572</v>
+        <v>1742</v>
       </c>
       <c r="I16" s="7">
-        <v>595413</v>
+        <v>1790349</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>44</v>
-      </c>
       <c r="M16" s="7">
-        <v>572</v>
+        <v>1742</v>
       </c>
       <c r="N16" s="7">
-        <v>595413</v>
+        <v>1790349</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1712,34 +1649,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>409</v>
+        <v>1505</v>
       </c>
       <c r="I17" s="7">
-        <v>426381</v>
+        <v>1536701</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="L17" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="M17" s="7">
-        <v>409</v>
+        <v>1505</v>
       </c>
       <c r="N17" s="7">
-        <v>426381</v>
+        <v>1536701</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,10 +1698,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>981</v>
+        <v>3247</v>
       </c>
       <c r="I18" s="7">
-        <v>1021794</v>
+        <v>3327050</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -1776,10 +1713,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>981</v>
+        <v>3247</v>
       </c>
       <c r="N18" s="7">
-        <v>1021794</v>
+        <v>3327050</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -1792,165 +1729,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1742</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1790349</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1742</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1790349</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1505</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1536701</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1505</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1536701</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3247</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3327050</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3247</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3327050</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -1963,8 +1750,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C7E4129-8ABC-46BB-B9D6-8FE834C37D10}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96924CE0-71A8-4E7C-A181-C37D1944EE8B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1980,7 +1767,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2094,34 +1881,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="I4" s="7">
-        <v>62754</v>
+        <v>431039</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="M4" s="7">
-        <v>55</v>
+        <v>398</v>
       </c>
       <c r="N4" s="7">
-        <v>62754</v>
+        <v>431039</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2143,34 +1930,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="I5" s="7">
-        <v>48090</v>
+        <v>258901</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="M5" s="7">
-        <v>43</v>
+        <v>245</v>
       </c>
       <c r="N5" s="7">
-        <v>48090</v>
+        <v>258901</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,10 +1979,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>98</v>
+        <v>643</v>
       </c>
       <c r="I6" s="7">
-        <v>110844</v>
+        <v>689940</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -2207,10 +1994,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>98</v>
+        <v>643</v>
       </c>
       <c r="N6" s="7">
-        <v>110844</v>
+        <v>689940</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -2243,34 +2030,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>343</v>
+        <v>599</v>
       </c>
       <c r="I7" s="7">
-        <v>368285</v>
+        <v>662081</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="M7" s="7">
-        <v>343</v>
+        <v>599</v>
       </c>
       <c r="N7" s="7">
-        <v>368285</v>
+        <v>662081</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2292,34 +2079,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>202</v>
+        <v>334</v>
       </c>
       <c r="I8" s="7">
-        <v>210810</v>
+        <v>362725</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="M8" s="7">
-        <v>202</v>
+        <v>334</v>
       </c>
       <c r="N8" s="7">
-        <v>210810</v>
+        <v>362725</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2341,10 +2128,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>545</v>
+        <v>933</v>
       </c>
       <c r="I9" s="7">
-        <v>579095</v>
+        <v>1024806</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -2356,10 +2143,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>545</v>
+        <v>933</v>
       </c>
       <c r="N9" s="7">
-        <v>579095</v>
+        <v>1024806</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -2392,34 +2179,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>599</v>
+        <v>485</v>
       </c>
       <c r="I10" s="7">
-        <v>662081</v>
+        <v>539760</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M10" s="7">
-        <v>599</v>
+        <v>485</v>
       </c>
       <c r="N10" s="7">
-        <v>662081</v>
+        <v>539760</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,34 +2228,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>334</v>
+        <v>212</v>
       </c>
       <c r="I11" s="7">
-        <v>362725</v>
+        <v>228079</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M11" s="7">
-        <v>334</v>
+        <v>212</v>
       </c>
       <c r="N11" s="7">
-        <v>362725</v>
+        <v>228079</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2490,10 +2277,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>933</v>
+        <v>697</v>
       </c>
       <c r="I12" s="7">
-        <v>1024806</v>
+        <v>767839</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -2505,10 +2292,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>933</v>
+        <v>697</v>
       </c>
       <c r="N12" s="7">
-        <v>1024806</v>
+        <v>767839</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -2541,34 +2328,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>485</v>
+        <v>625</v>
       </c>
       <c r="I13" s="7">
-        <v>539760</v>
+        <v>660096</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
-        <v>485</v>
+        <v>625</v>
       </c>
       <c r="N13" s="7">
-        <v>539760</v>
+        <v>660096</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,34 +2377,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>212</v>
+        <v>366</v>
       </c>
       <c r="I14" s="7">
-        <v>228079</v>
+        <v>379673</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
-        <v>212</v>
+        <v>366</v>
       </c>
       <c r="N14" s="7">
-        <v>228079</v>
+        <v>379673</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,10 +2426,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>697</v>
+        <v>991</v>
       </c>
       <c r="I15" s="7">
-        <v>767839</v>
+        <v>1039769</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -2654,10 +2441,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>697</v>
+        <v>991</v>
       </c>
       <c r="N15" s="7">
-        <v>767839</v>
+        <v>1039769</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -2671,7 +2458,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2690,34 +2477,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>625</v>
+        <v>2107</v>
       </c>
       <c r="I16" s="7">
-        <v>660096</v>
+        <v>2292976</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M16" s="7">
-        <v>625</v>
+        <v>2107</v>
       </c>
       <c r="N16" s="7">
-        <v>660096</v>
+        <v>2292976</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2739,34 +2526,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>366</v>
+        <v>1157</v>
       </c>
       <c r="I17" s="7">
-        <v>379673</v>
+        <v>1229377</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="M17" s="7">
-        <v>366</v>
+        <v>1157</v>
       </c>
       <c r="N17" s="7">
-        <v>379673</v>
+        <v>1229377</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,10 +2575,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>991</v>
+        <v>3264</v>
       </c>
       <c r="I18" s="7">
-        <v>1039769</v>
+        <v>3522353</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -2803,10 +2590,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>991</v>
+        <v>3264</v>
       </c>
       <c r="N18" s="7">
-        <v>1039769</v>
+        <v>3522353</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -2819,165 +2606,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2107</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2292976</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2107</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2292976</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1157</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1229378</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1157</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1229378</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3264</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3522354</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3264</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3522354</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2990,8 +2627,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C697F01-EDA3-441B-A444-459373514961}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD1D9597-E6D0-422B-B861-73E4EE37C993}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3007,7 +2644,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3121,34 +2758,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>70</v>
+        <v>369</v>
       </c>
       <c r="I4" s="7">
-        <v>67523</v>
+        <v>370525</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="M4" s="7">
-        <v>70</v>
+        <v>369</v>
       </c>
       <c r="N4" s="7">
-        <v>67523</v>
+        <v>370525</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3170,34 +2807,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="I5" s="7">
-        <v>43026</v>
+        <v>294992</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>290</v>
       </c>
       <c r="N5" s="7">
-        <v>43026</v>
+        <v>294992</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3219,10 +2856,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>112</v>
+        <v>659</v>
       </c>
       <c r="I6" s="7">
-        <v>110549</v>
+        <v>665517</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3234,10 +2871,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>112</v>
+        <v>659</v>
       </c>
       <c r="N6" s="7">
-        <v>110549</v>
+        <v>665517</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3270,34 +2907,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>299</v>
+        <v>631</v>
       </c>
       <c r="I7" s="7">
-        <v>303002</v>
+        <v>668829</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="M7" s="7">
-        <v>299</v>
+        <v>631</v>
       </c>
       <c r="N7" s="7">
-        <v>303002</v>
+        <v>668829</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3319,34 +2956,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>248</v>
+        <v>331</v>
       </c>
       <c r="I8" s="7">
-        <v>251966</v>
+        <v>357768</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="M8" s="7">
-        <v>248</v>
+        <v>331</v>
       </c>
       <c r="N8" s="7">
-        <v>251966</v>
+        <v>357768</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3368,10 +3005,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>547</v>
+        <v>962</v>
       </c>
       <c r="I9" s="7">
-        <v>554968</v>
+        <v>1026597</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3383,10 +3020,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>547</v>
+        <v>962</v>
       </c>
       <c r="N9" s="7">
-        <v>554968</v>
+        <v>1026597</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3419,34 +3056,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>631</v>
+        <v>480</v>
       </c>
       <c r="I10" s="7">
-        <v>668829</v>
+        <v>506968</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
-        <v>631</v>
+        <v>480</v>
       </c>
       <c r="N10" s="7">
-        <v>668829</v>
+        <v>506968</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3468,34 +3105,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>331</v>
+        <v>252</v>
       </c>
       <c r="I11" s="7">
-        <v>357768</v>
+        <v>273836</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="M11" s="7">
-        <v>331</v>
+        <v>252</v>
       </c>
       <c r="N11" s="7">
-        <v>357768</v>
+        <v>273836</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3517,10 +3154,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>962</v>
+        <v>732</v>
       </c>
       <c r="I12" s="7">
-        <v>1026597</v>
+        <v>780804</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3532,10 +3169,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>962</v>
+        <v>732</v>
       </c>
       <c r="N12" s="7">
-        <v>1026597</v>
+        <v>780804</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3568,34 +3205,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>480</v>
+        <v>643</v>
       </c>
       <c r="I13" s="7">
-        <v>506968</v>
+        <v>695903</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="M13" s="7">
-        <v>480</v>
+        <v>643</v>
       </c>
       <c r="N13" s="7">
-        <v>506968</v>
+        <v>695903</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3617,34 +3254,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="I14" s="7">
-        <v>273836</v>
+        <v>337850</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="N14" s="7">
-        <v>273836</v>
+        <v>337850</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,10 +3303,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>732</v>
+        <v>950</v>
       </c>
       <c r="I15" s="7">
-        <v>780804</v>
+        <v>1033753</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3681,10 +3318,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>732</v>
+        <v>950</v>
       </c>
       <c r="N15" s="7">
-        <v>780804</v>
+        <v>1033753</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3698,7 +3335,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3717,34 +3354,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>643</v>
+        <v>2123</v>
       </c>
       <c r="I16" s="7">
-        <v>695903</v>
+        <v>2242226</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="M16" s="7">
-        <v>643</v>
+        <v>2123</v>
       </c>
       <c r="N16" s="7">
-        <v>695903</v>
+        <v>2242226</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3766,34 +3403,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>307</v>
+        <v>1180</v>
       </c>
       <c r="I17" s="7">
-        <v>337850</v>
+        <v>1264446</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="M17" s="7">
-        <v>307</v>
+        <v>1180</v>
       </c>
       <c r="N17" s="7">
-        <v>337850</v>
+        <v>1264446</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,10 +3452,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>950</v>
+        <v>3303</v>
       </c>
       <c r="I18" s="7">
-        <v>1033753</v>
+        <v>3506672</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -3830,10 +3467,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>950</v>
+        <v>3303</v>
       </c>
       <c r="N18" s="7">
-        <v>1033753</v>
+        <v>3506672</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -3846,165 +3483,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2123</v>
-      </c>
-      <c r="I19" s="7">
-        <v>2242226</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2123</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2242226</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1180</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1264446</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1180</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1264446</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3303</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3506672</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3303</v>
-      </c>
-      <c r="N21" s="7">
-        <v>3506672</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4017,8 +3504,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28D161F3-E355-4F37-AEEF-85EB3CDB97FD}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A6981B-06D1-49F1-A26B-D7E4FB56F454}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4034,7 +3521,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4148,34 +3635,34 @@
         <v>11</v>
       </c>
       <c r="H4" s="7">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="I4" s="7">
-        <v>53672</v>
+        <v>267433</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="N4" s="7">
-        <v>53672</v>
+        <v>267433</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,34 +3684,34 @@
         <v>11</v>
       </c>
       <c r="H5" s="7">
-        <v>65</v>
+        <v>433</v>
       </c>
       <c r="I5" s="7">
-        <v>34268</v>
+        <v>238729</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
-        <v>65</v>
+        <v>433</v>
       </c>
       <c r="N5" s="7">
-        <v>34268</v>
+        <v>238729</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,10 +3733,10 @@
         <v>11</v>
       </c>
       <c r="H6" s="7">
-        <v>165</v>
+        <v>933</v>
       </c>
       <c r="I6" s="7">
-        <v>87940</v>
+        <v>506162</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -4261,10 +3748,10 @@
         <v>19</v>
       </c>
       <c r="M6" s="7">
-        <v>165</v>
+        <v>933</v>
       </c>
       <c r="N6" s="7">
-        <v>87940</v>
+        <v>506162</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -4297,34 +3784,34 @@
         <v>11</v>
       </c>
       <c r="H7" s="7">
-        <v>400</v>
+        <v>643</v>
       </c>
       <c r="I7" s="7">
-        <v>228952</v>
+        <v>380965</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="M7" s="7">
-        <v>400</v>
+        <v>643</v>
       </c>
       <c r="N7" s="7">
-        <v>228952</v>
+        <v>380965</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4346,34 +3833,34 @@
         <v>11</v>
       </c>
       <c r="H8" s="7">
-        <v>368</v>
+        <v>522</v>
       </c>
       <c r="I8" s="7">
-        <v>226927</v>
+        <v>347532</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="M8" s="7">
-        <v>368</v>
+        <v>522</v>
       </c>
       <c r="N8" s="7">
-        <v>226927</v>
+        <v>347532</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4395,10 +3882,10 @@
         <v>11</v>
       </c>
       <c r="H9" s="7">
-        <v>768</v>
+        <v>1165</v>
       </c>
       <c r="I9" s="7">
-        <v>455879</v>
+        <v>728497</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -4410,10 +3897,10 @@
         <v>19</v>
       </c>
       <c r="M9" s="7">
-        <v>768</v>
+        <v>1165</v>
       </c>
       <c r="N9" s="7">
-        <v>455879</v>
+        <v>728497</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -4446,34 +3933,34 @@
         <v>11</v>
       </c>
       <c r="H10" s="7">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="I10" s="7">
-        <v>413703</v>
+        <v>353936</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="M10" s="7">
-        <v>643</v>
+        <v>500</v>
       </c>
       <c r="N10" s="7">
-        <v>413703</v>
+        <v>353936</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4495,34 +3982,34 @@
         <v>11</v>
       </c>
       <c r="H11" s="7">
-        <v>522</v>
+        <v>226</v>
       </c>
       <c r="I11" s="7">
-        <v>395116</v>
+        <v>370603</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="M11" s="7">
-        <v>522</v>
+        <v>226</v>
       </c>
       <c r="N11" s="7">
-        <v>395116</v>
+        <v>370603</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4544,10 +4031,10 @@
         <v>11</v>
       </c>
       <c r="H12" s="7">
-        <v>1165</v>
+        <v>726</v>
       </c>
       <c r="I12" s="7">
-        <v>808819</v>
+        <v>724539</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -4559,10 +4046,10 @@
         <v>19</v>
       </c>
       <c r="M12" s="7">
-        <v>1165</v>
+        <v>726</v>
       </c>
       <c r="N12" s="7">
-        <v>808819</v>
+        <v>724539</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -4595,34 +4082,34 @@
         <v>11</v>
       </c>
       <c r="H13" s="7">
-        <v>500</v>
+        <v>777</v>
       </c>
       <c r="I13" s="7">
-        <v>356550</v>
+        <v>568955</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="M13" s="7">
-        <v>500</v>
+        <v>777</v>
       </c>
       <c r="N13" s="7">
-        <v>356550</v>
+        <v>568955</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4644,34 +4131,34 @@
         <v>11</v>
       </c>
       <c r="H14" s="7">
-        <v>226</v>
+        <v>387</v>
       </c>
       <c r="I14" s="7">
-        <v>293806</v>
+        <v>279275</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="M14" s="7">
-        <v>226</v>
+        <v>387</v>
       </c>
       <c r="N14" s="7">
-        <v>293806</v>
+        <v>279275</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4693,10 +4180,10 @@
         <v>11</v>
       </c>
       <c r="H15" s="7">
-        <v>726</v>
+        <v>1164</v>
       </c>
       <c r="I15" s="7">
-        <v>650356</v>
+        <v>848230</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -4708,10 +4195,10 @@
         <v>19</v>
       </c>
       <c r="M15" s="7">
-        <v>726</v>
+        <v>1164</v>
       </c>
       <c r="N15" s="7">
-        <v>650356</v>
+        <v>848230</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -4725,7 +4212,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4744,34 +4231,34 @@
         <v>11</v>
       </c>
       <c r="H16" s="7">
-        <v>777</v>
+        <v>2420</v>
       </c>
       <c r="I16" s="7">
-        <v>560339</v>
+        <v>1571289</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="M16" s="7">
-        <v>777</v>
+        <v>2420</v>
       </c>
       <c r="N16" s="7">
-        <v>560339</v>
+        <v>1571289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4793,34 +4280,34 @@
         <v>11</v>
       </c>
       <c r="H17" s="7">
-        <v>387</v>
+        <v>1568</v>
       </c>
       <c r="I17" s="7">
-        <v>321572</v>
+        <v>1236139</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="M17" s="7">
-        <v>387</v>
+        <v>1568</v>
       </c>
       <c r="N17" s="7">
-        <v>321572</v>
+        <v>1236139</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,10 +4329,10 @@
         <v>11</v>
       </c>
       <c r="H18" s="7">
-        <v>1164</v>
+        <v>3988</v>
       </c>
       <c r="I18" s="7">
-        <v>881911</v>
+        <v>2807428</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4857,10 +4344,10 @@
         <v>19</v>
       </c>
       <c r="M18" s="7">
-        <v>1164</v>
+        <v>3988</v>
       </c>
       <c r="N18" s="7">
-        <v>881911</v>
+        <v>2807428</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4873,165 +4360,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H19" s="7">
-        <v>2420</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1613216</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M19" s="7">
-        <v>2420</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1613216</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="7">
-        <v>0</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1568</v>
-      </c>
-      <c r="I20" s="7">
-        <v>1271690</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1568</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1271690</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>0</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3988</v>
-      </c>
-      <c r="I21" s="7">
-        <v>2884906</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M21" s="7">
-        <v>3988</v>
-      </c>
-      <c r="N21" s="7">
-        <v>2884906</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>54</v>
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
